--- a/Five_Rivers/Python/RI.xlsx
+++ b/Five_Rivers/Python/RI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>CrW</t>
   </si>
@@ -56,6 +56,24 @@
   </si>
   <si>
     <t>RI_Rainy</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Dhaleshwari</t>
+  </si>
+  <si>
+    <t>Turag</t>
+  </si>
+  <si>
+    <t>Buriganga</t>
+  </si>
+  <si>
+    <t>Balu</t>
+  </si>
+  <si>
+    <t>Shitalakshya</t>
   </si>
 </sst>
 </file>
@@ -413,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +480,11 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -509,8 +530,11 @@
       <c r="O2">
         <v>133.258509552539</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -556,8 +580,11 @@
       <c r="O3">
         <v>115.1590784313725</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -603,8 +630,11 @@
       <c r="O4">
         <v>107.9191284565108</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -650,8 +680,11 @@
       <c r="O5">
         <v>126.50732528909</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -697,8 +730,11 @@
       <c r="O6">
         <v>147.4374964806435</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -744,8 +780,11 @@
       <c r="O7">
         <v>120.2993222724988</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -791,8 +830,11 @@
       <c r="O8">
         <v>120.9410872297637</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -838,8 +880,11 @@
       <c r="O9">
         <v>202.0291096028155</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -885,8 +930,11 @@
       <c r="O10">
         <v>320.2579205630971</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -932,8 +980,11 @@
       <c r="O11">
         <v>225.6313645047763</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -979,8 +1030,11 @@
       <c r="O12">
         <v>340.0896993464053</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1026,8 +1080,11 @@
       <c r="O13">
         <v>386.1243122171945</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1073,8 +1130,11 @@
       <c r="O14">
         <v>92.83675565610861</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1120,8 +1180,11 @@
       <c r="O15">
         <v>81.26496832579186</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1167,8 +1230,11 @@
       <c r="O16">
         <v>187.606115635998</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1214,8 +1280,11 @@
       <c r="O17">
         <v>232.4231415284062</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1260,6 +1329,9 @@
       </c>
       <c r="O18">
         <v>231.4165992961287</v>
+      </c>
+      <c r="P18" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
